--- a/ignite/性能测试/分布式内存库测试用例（第四版）.xlsx
+++ b/ignite/性能测试/分布式内存库测试用例（第四版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="-470" windowWidth="19420" windowHeight="7990" tabRatio="772" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="-130" yWindow="-470" windowWidth="19420" windowHeight="7990" tabRatio="772" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="(功能测试)" sheetId="1" r:id="rId1"/>
@@ -3821,7 +3821,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3965,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4746,7 +4746,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5292,7 +5292,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/ignite/性能测试/分布式内存库测试用例（第四版）.xlsx
+++ b/ignite/性能测试/分布式内存库测试用例（第四版）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-130" yWindow="-470" windowWidth="19420" windowHeight="7990" tabRatio="772" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-135" yWindow="-465" windowWidth="19425" windowHeight="7995" tabRatio="772" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="(功能测试)" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="279">
   <si>
     <t>序号</t>
   </si>
@@ -805,9 +805,6 @@
   </si>
   <si>
     <t>二级缓存索引</t>
-  </si>
-  <si>
-    <t>系统峰值</t>
   </si>
   <si>
     <t>测试场景</t>
@@ -1195,6 +1192,42 @@
   </si>
   <si>
     <t>单线程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象大小（KB)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1台</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1259,7 +1292,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="PMingLiU"/>
-      <charset val="136"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1462,7 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1643,7 +1676,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,7 +1684,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1662,17 +1693,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1704,6 +1741,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1722,17 +1765,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1920,11 +1960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174635648"/>
-        <c:axId val="174649728"/>
+        <c:axId val="94122752"/>
+        <c:axId val="94124288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174635648"/>
+        <c:axId val="94122752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174649728"/>
+        <c:crossAx val="94124288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +1982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174649728"/>
+        <c:axId val="94124288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174635648"/>
+        <c:crossAx val="94122752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,11 +2144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174731648"/>
-        <c:axId val="174733184"/>
+        <c:axId val="94148864"/>
+        <c:axId val="94150656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174731648"/>
+        <c:axId val="94148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174733184"/>
+        <c:crossAx val="94150656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2126,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174733184"/>
+        <c:axId val="94150656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174731648"/>
+        <c:crossAx val="94148864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2163,14 +2203,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
+      <xdr:colOff>448234</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>109445</xdr:rowOff>
     </xdr:to>
@@ -2193,8 +2233,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>85165</xdr:rowOff>
     </xdr:from>
@@ -2537,13 +2577,13 @@
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3126,7 +3166,7 @@
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="1:9" ht="28">
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="51">
         <v>25</v>
       </c>
@@ -3149,7 +3189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="42">
+    <row r="26" spans="1:9" ht="40.5">
       <c r="A26" s="51">
         <v>26</v>
       </c>
@@ -3172,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28">
+    <row r="27" spans="1:9" ht="27">
       <c r="A27" s="51">
         <v>27</v>
       </c>
@@ -3195,7 +3235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28">
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="51">
         <v>28</v>
       </c>
@@ -3235,7 +3275,7 @@
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G29" s="51" t="s">
         <v>19</v>
@@ -3400,27 +3440,27 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="37.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="10" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="10" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="44"/>
     </row>
-    <row r="2" spans="1:10" ht="28">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -3449,7 +3489,7 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="89">
+      <c r="A3" s="101">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -3481,7 +3521,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="90"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="12" t="s">
         <v>150</v>
       </c>
@@ -3511,7 +3551,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="101"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="45" t="s">
         <v>150</v>
       </c>
@@ -3561,38 +3601,38 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" customWidth="1"/>
-    <col min="8" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-    </row>
-    <row r="2" spans="1:15" ht="56">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:15" ht="54">
       <c r="A2" s="5" t="s">
         <v>184</v>
       </c>
@@ -3606,7 +3646,7 @@
         <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>118</v>
@@ -3819,143 +3859,155 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
-    <col min="2" max="3" width="11.36328125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="4" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="28">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="109" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="42">
+      <c r="D3" s="42">
         <v>9535196</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="42">
+      <c r="G3" s="42">
         <v>60062</v>
       </c>
-      <c r="G3" s="42">
+      <c r="H3" s="42">
         <v>9535196</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="110"/>
+      <c r="B4" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="42">
+      <c r="D4" s="42">
         <v>9535196</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="42">
+      <c r="G4" s="42">
         <v>43891</v>
       </c>
-      <c r="G4" s="42">
+      <c r="H4" s="42">
         <v>9535196</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="110"/>
+      <c r="B5" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="42">
+      <c r="D5" s="42">
         <v>9535196</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="42">
+      <c r="G5" s="42">
         <v>62106</v>
       </c>
-      <c r="G5" s="42">
+      <c r="H5" s="42">
         <v>9535196</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="111"/>
+      <c r="B6" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="42">
+      <c r="D6" s="42">
         <v>9535196</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="42">
+      <c r="G6" s="42">
         <v>44547</v>
       </c>
-      <c r="G6" s="42">
+      <c r="H6" s="42">
         <v>9535196</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3965,41 +4017,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.15" customHeight="1">
-      <c r="A1" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-    </row>
-    <row r="2" spans="1:10" ht="42">
+    <row r="1" spans="1:10" ht="14.1" customHeight="1">
+      <c r="A1" s="106" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+    </row>
+    <row r="2" spans="1:10" ht="40.5">
       <c r="A2" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>217</v>
@@ -4008,7 +4060,7 @@
         <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>120</v>
@@ -4031,7 +4083,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>220</v>
@@ -4050,20 +4102,20 @@
       </c>
       <c r="H3" s="29">
         <f>J3/F3/G3</f>
-        <v>525.70000000000005</v>
+        <v>50</v>
       </c>
       <c r="I3" s="29">
         <f t="shared" ref="I3:I24" si="0">1000/H3</f>
-        <v>1.9022256039566301</v>
+        <v>20</v>
       </c>
       <c r="J3" s="33">
-        <v>10514</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="20" customFormat="1">
       <c r="A4" s="30"/>
       <c r="B4" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>220</v>
@@ -4082,20 +4134,20 @@
       </c>
       <c r="H4" s="29">
         <f t="shared" ref="H4:H24" si="1">J4/F4/G4</f>
-        <v>353.226</v>
+        <v>1</v>
       </c>
       <c r="I4" s="29">
         <f t="shared" si="0"/>
-        <v>2.83104867705095</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="33">
-        <v>353226</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="20" customFormat="1">
       <c r="A5" s="30"/>
       <c r="B5" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>221</v>
@@ -4114,20 +4166,20 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" si="1"/>
-        <v>8.3000000000000007</v>
+        <v>50</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" si="0"/>
-        <v>120.481927710843</v>
+        <v>20</v>
       </c>
       <c r="J5" s="33">
-        <v>166</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1">
       <c r="A6" s="30"/>
       <c r="B6" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>221</v>
@@ -4146,20 +4198,20 @@
       </c>
       <c r="H6" s="29">
         <f t="shared" si="1"/>
-        <v>2.6619999999999999</v>
+        <v>1</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="0"/>
-        <v>375.657400450789</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="33">
-        <v>2662</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1">
       <c r="A7" s="30"/>
       <c r="B7" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>221</v>
@@ -4178,20 +4230,20 @@
       </c>
       <c r="H7" s="29">
         <f t="shared" si="1"/>
-        <v>1.8125</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="29">
         <f t="shared" si="0"/>
-        <v>551.72413793103499</v>
+        <v>2000</v>
       </c>
       <c r="J7" s="33">
-        <v>3625</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="20" customFormat="1">
       <c r="A8" s="30"/>
       <c r="B8" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>222</v>
@@ -4210,20 +4262,20 @@
       </c>
       <c r="H8" s="29">
         <f t="shared" si="1"/>
-        <v>8.0500000000000007</v>
+        <v>50</v>
       </c>
       <c r="I8" s="29">
         <f t="shared" si="0"/>
-        <v>124.223602484472</v>
+        <v>20</v>
       </c>
       <c r="J8" s="33">
-        <v>161</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="20" customFormat="1">
       <c r="A9" s="30"/>
       <c r="B9" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>222</v>
@@ -4242,20 +4294,20 @@
       </c>
       <c r="H9" s="29">
         <f t="shared" si="1"/>
-        <v>2.6150000000000002</v>
+        <v>1</v>
       </c>
       <c r="I9" s="29">
         <f t="shared" si="0"/>
-        <v>382.40917782026798</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="33">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="75" customFormat="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="32" t="s">
-        <v>191</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="74" customFormat="1">
+      <c r="A10" s="76"/>
+      <c r="B10" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>222</v>
@@ -4272,22 +4324,22 @@
       <c r="G10" s="32">
         <v>100</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="77">
         <f t="shared" si="1"/>
-        <v>1.5665</v>
-      </c>
-      <c r="I10" s="78">
-        <f t="shared" si="0"/>
-        <v>638.36578359399903</v>
-      </c>
-      <c r="J10" s="79">
-        <v>3133</v>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="77">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J10" s="33">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="20" customFormat="1">
       <c r="A11" s="30"/>
       <c r="B11" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>223</v>
@@ -4306,20 +4358,20 @@
       </c>
       <c r="H11" s="29">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>50</v>
       </c>
       <c r="I11" s="29">
         <f t="shared" si="0"/>
-        <v>117.64705882352899</v>
+        <v>20</v>
       </c>
       <c r="J11" s="33">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="20" customFormat="1">
       <c r="A12" s="30"/>
       <c r="B12" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>223</v>
@@ -4338,20 +4390,20 @@
       </c>
       <c r="H12" s="29">
         <f t="shared" si="1"/>
-        <v>2.5840000000000001</v>
+        <v>1</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="0"/>
-        <v>386.99690402476801</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="33">
-        <v>2584</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="20" customFormat="1">
       <c r="A13" s="30"/>
       <c r="B13" s="13" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>223</v>
@@ -4370,20 +4422,20 @@
       </c>
       <c r="H13" s="29">
         <f t="shared" si="1"/>
-        <v>1.7929999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="29">
         <f t="shared" si="0"/>
-        <v>557.72448410485197</v>
+        <v>2000</v>
       </c>
       <c r="J13" s="33">
-        <v>3586</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="31"/>
       <c r="B14" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>220</v>
@@ -4402,20 +4454,20 @@
       </c>
       <c r="H14" s="29">
         <f t="shared" si="1"/>
-        <v>1832.9</v>
+        <v>50</v>
       </c>
       <c r="I14" s="29">
         <f t="shared" si="0"/>
-        <v>0.54558350155491298</v>
+        <v>20</v>
       </c>
       <c r="J14" s="33">
-        <v>36658</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="31"/>
       <c r="B15" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>220</v>
@@ -4434,20 +4486,20 @@
       </c>
       <c r="H15" s="29">
         <f t="shared" si="1"/>
-        <v>955.54399999999998</v>
+        <v>1</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="0"/>
-        <v>1.0465242835494799</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="33">
-        <v>955544</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>221</v>
@@ -4466,20 +4518,20 @@
       </c>
       <c r="H16" s="29">
         <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>50</v>
       </c>
       <c r="I16" s="29">
         <f t="shared" si="0"/>
-        <v>121.951219512195</v>
+        <v>20</v>
       </c>
       <c r="J16" s="33">
-        <v>164</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>221</v>
@@ -4498,20 +4550,20 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" si="1"/>
-        <v>3.0739999999999998</v>
+        <v>1</v>
       </c>
       <c r="I17" s="29">
         <f t="shared" si="0"/>
-        <v>325.30904359141198</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="33">
-        <v>3074</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="31"/>
       <c r="B18" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>221</v>
@@ -4530,20 +4582,20 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" si="1"/>
-        <v>1.7889999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="29">
         <f t="shared" si="0"/>
-        <v>558.97149245388505</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="33">
-        <v>3578</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>222</v>
@@ -4562,20 +4614,20 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" si="1"/>
-        <v>8.35</v>
+        <v>50</v>
       </c>
       <c r="I19" s="29">
         <f t="shared" si="0"/>
-        <v>119.760479041916</v>
+        <v>20</v>
       </c>
       <c r="J19" s="33">
-        <v>167</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>222</v>
@@ -4594,20 +4646,20 @@
       </c>
       <c r="H20" s="29">
         <f t="shared" si="1"/>
-        <v>2.9409999999999998</v>
+        <v>1</v>
       </c>
       <c r="I20" s="29">
         <f t="shared" si="0"/>
-        <v>340.020401224073</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="33">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="75" customFormat="1">
-      <c r="A21" s="77"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="74" customFormat="1">
+      <c r="A21" s="76"/>
       <c r="B21" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>222</v>
@@ -4624,22 +4676,22 @@
       <c r="G21" s="32">
         <v>100</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="77">
         <f t="shared" si="1"/>
-        <v>1.7144999999999999</v>
-      </c>
-      <c r="I21" s="78">
-        <f t="shared" si="0"/>
-        <v>583.26042578011095</v>
-      </c>
-      <c r="J21" s="79">
-        <v>3429</v>
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="77">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J21" s="33">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="20" customFormat="1">
       <c r="A22" s="30"/>
       <c r="B22" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>223</v>
@@ -4658,20 +4710,20 @@
       </c>
       <c r="H22" s="29">
         <f t="shared" si="1"/>
-        <v>7.75</v>
+        <v>50</v>
       </c>
       <c r="I22" s="29">
         <f t="shared" si="0"/>
-        <v>129.03225806451599</v>
+        <v>20</v>
       </c>
       <c r="J22" s="33">
-        <v>155</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="20" customFormat="1">
       <c r="A23" s="30"/>
       <c r="B23" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>223</v>
@@ -4690,20 +4742,20 @@
       </c>
       <c r="H23" s="29">
         <f t="shared" si="1"/>
-        <v>3.4159999999999999</v>
+        <v>1</v>
       </c>
       <c r="I23" s="29">
         <f t="shared" si="0"/>
-        <v>292.74004683840701</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="33">
-        <v>3416</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="20" customFormat="1">
       <c r="A24" s="30"/>
       <c r="B24" s="32" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>223</v>
@@ -4722,14 +4774,14 @@
       </c>
       <c r="H24" s="29">
         <f t="shared" si="1"/>
-        <v>1.8385</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="29">
         <f t="shared" si="0"/>
-        <v>543.92167527875995</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="33">
-        <v>3677</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4746,47 +4798,51 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="23" customWidth="1"/>
-    <col min="4" max="5" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.15" customHeight="1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:14" ht="14.1" customHeight="1">
+      <c r="A1" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-    </row>
-    <row r="2" spans="1:14" ht="56">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:14" ht="54">
       <c r="A2" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>117</v>
@@ -4823,14 +4879,14 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="101" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="21">
         <v>10000000</v>
@@ -4842,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="21">
         <v>20</v>
@@ -4852,25 +4908,25 @@
       </c>
       <c r="J3" s="26">
         <f>N3/H3/I3</f>
-        <v>12.05</v>
+        <v>50</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3:K8" si="0">1000/J3</f>
-        <v>82.987551867219906</v>
+        <v>20</v>
       </c>
       <c r="L3" s="26"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11">
-        <v>241</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="90"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="21" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="21">
         <v>10000000</v>
@@ -4882,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="21">
         <v>20</v>
@@ -4892,25 +4948,25 @@
       </c>
       <c r="J4" s="26">
         <f t="shared" ref="J4:J8" si="1">N4/H4/I4</f>
-        <v>4.7130000000000001</v>
+        <v>1</v>
       </c>
       <c r="K4" s="26">
         <f t="shared" si="0"/>
-        <v>212.17907914279652</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="26"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11">
-        <v>4713</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="23" t="s">
-        <v>191</v>
+      <c r="A5" s="102"/>
+      <c r="B5" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="21">
         <v>10000000</v>
@@ -4922,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" s="21">
         <v>20</v>
@@ -4932,25 +4988,25 @@
       </c>
       <c r="J5" s="26">
         <f t="shared" si="1"/>
-        <v>3.5964999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="26">
         <f t="shared" si="0"/>
-        <v>278.04810232170166</v>
+        <v>2000</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
-      <c r="N5" s="27">
-        <v>7193</v>
+      <c r="N5" s="11">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="90"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="21" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="21">
         <v>10000000</v>
@@ -4962,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="21">
         <v>20</v>
@@ -4972,25 +5028,25 @@
       </c>
       <c r="J6" s="26">
         <f t="shared" si="1"/>
-        <v>11.05</v>
+        <v>50</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="0"/>
-        <v>90.497737556561077</v>
+        <v>20</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11">
-        <v>221</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="90"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="21" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="21">
         <v>10000000</v>
@@ -5002,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" s="21">
         <v>20</v>
@@ -5012,25 +5068,25 @@
       </c>
       <c r="J7" s="26">
         <f t="shared" si="1"/>
-        <v>3.4930000000000003</v>
+        <v>1</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="0"/>
-        <v>286.28685943315202</v>
+        <v>1000</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11">
-        <v>3493</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="20" customFormat="1">
-      <c r="A8" s="90"/>
-      <c r="B8" s="23" t="s">
-        <v>191</v>
+      <c r="A8" s="102"/>
+      <c r="B8" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="21">
         <v>10000000</v>
@@ -5042,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="21">
         <v>20</v>
@@ -5052,16 +5108,16 @@
       </c>
       <c r="J8" s="26">
         <f t="shared" si="1"/>
-        <v>2.5939999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="26">
         <f t="shared" si="0"/>
-        <v>385.50501156515037</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
-      <c r="N8" s="27">
-        <v>5188</v>
+      <c r="N8" s="11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -5077,44 +5133,43 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625"/>
+    <col min="1" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="6" width="8.75"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="11" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.15" customHeight="1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A1" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-    </row>
-    <row r="2" spans="1:11" ht="42">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.5">
       <c r="A2" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>116</v>
+      <c r="B2" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>117</v>
@@ -5145,11 +5200,11 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="101" t="s">
         <v>219</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -5164,21 +5219,23 @@
         <v>1</v>
       </c>
       <c r="G3" s="18">
-        <v>216.26</v>
+        <f>K3/E3</f>
+        <v>20</v>
       </c>
       <c r="H3" s="18">
-        <v>4.62</v>
+        <f>1000/G3*F3</f>
+        <v>50</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9">
-        <v>10813</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="90"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="8" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -5190,24 +5247,26 @@
         <v>50</v>
       </c>
       <c r="F4" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G4" s="18">
-        <v>966.3</v>
+        <f t="shared" ref="G4:G5" si="0">K4/E4</f>
+        <v>20</v>
       </c>
       <c r="H4" s="18">
-        <v>1.03</v>
+        <f t="shared" ref="H4:H5" si="1">1000/G4*F4</f>
+        <v>2500</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9">
-        <v>1207877</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="90"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="8" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -5219,24 +5278,28 @@
         <v>50</v>
       </c>
       <c r="F5" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5" s="18">
-        <v>2056.08</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H5" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="I5" s="18"/>
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9">
-        <v>5140191</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="101"/>
+      <c r="A6" s="101" t="s">
+        <v>219</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="C6" s="8">
         <v>10000000</v>
@@ -5248,39 +5311,104 @@
         <v>50</v>
       </c>
       <c r="F6" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G6" s="18">
-        <v>4438.46</v>
+        <f>K6/E6</f>
+        <v>20</v>
       </c>
       <c r="H6" s="18">
-        <v>0.23</v>
-      </c>
-      <c r="I6" s="9"/>
+        <f>1000/G6*F6</f>
+        <v>50</v>
+      </c>
+      <c r="I6" s="18"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9">
-        <v>22192278</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8">
+        <v>50</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" ref="G7:G8" si="2">K7/E7</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" ref="H7:H8" si="3">1000/G7*F7</f>
+        <v>2500</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="103"/>
+      <c r="B8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="8">
+        <v>100</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5292,34 +5420,34 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125"/>
-    <col min="10" max="10" width="12.90625"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="10.625"/>
+    <col min="10" max="10" width="12.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.15" customHeight="1">
-      <c r="A1" s="106" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-    </row>
-    <row r="2" spans="1:13" ht="42">
+    <row r="1" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A1" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" ht="40.5">
       <c r="A2" s="5" t="s">
         <v>115</v>
       </c>
@@ -5333,7 +5461,7 @@
         <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>119</v>
@@ -5368,13 +5496,13 @@
         <v>191</v>
       </c>
       <c r="C3" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>127</v>
@@ -5386,17 +5514,17 @@
         <v>1</v>
       </c>
       <c r="I3" s="11">
-        <f>M3/G3/H3/C3</f>
-        <v>0.51575000000000004</v>
+        <f>M3/C3</f>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J18" si="0">1000/I3</f>
-        <v>1938.9238972370333</v>
+        <f>1000/I3*H3</f>
+        <v>60000</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11">
-        <v>10315</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5405,13 +5533,13 @@
         <v>191</v>
       </c>
       <c r="C4" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>127</v>
@@ -5423,17 +5551,17 @@
         <v>50</v>
       </c>
       <c r="I4" s="11">
-        <f t="shared" ref="I4:I18" si="1">M4/G4/H4/C4</f>
-        <v>0.167575</v>
+        <f t="shared" ref="I4:I18" si="0">M4/C4</f>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" si="0"/>
-        <v>5967.4772489929883</v>
+        <f t="shared" ref="J4:J18" si="1">1000/I4*H4</f>
+        <v>3000000</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11">
-        <v>167575</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5442,13 +5570,13 @@
         <v>191</v>
       </c>
       <c r="C5" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>127</v>
@@ -5460,17 +5588,17 @@
         <v>100</v>
       </c>
       <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>0.1051265</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" si="0"/>
-        <v>9512.3494076184415</v>
+        <v>6000000</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11">
-        <v>210253</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5479,13 +5607,13 @@
         <v>191</v>
       </c>
       <c r="C6" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>127</v>
@@ -5497,17 +5625,17 @@
         <v>200</v>
       </c>
       <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>8.0450750000000001E-2</v>
-      </c>
-      <c r="J6" s="74">
-        <f t="shared" si="0"/>
-        <v>12429.964916424024</v>
+        <v>12000000</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11">
-        <v>321803</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5515,13 +5643,13 @@
         <v>191</v>
       </c>
       <c r="C7" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>136</v>
@@ -5533,17 +5661,17 @@
         <v>1</v>
       </c>
       <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J7" s="10">
         <f t="shared" si="1"/>
-        <v>0.31004999999999999</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="0"/>
-        <v>3225.2862441541688</v>
+        <v>60000</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11">
-        <v>6201</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5551,13 +5679,13 @@
         <v>191</v>
       </c>
       <c r="C8" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>136</v>
@@ -5569,17 +5697,17 @@
         <v>50</v>
       </c>
       <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>3.8414000000000004E-2</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="0"/>
-        <v>26032.175769250793</v>
+        <v>3000000</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11">
-        <v>38414</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5587,13 +5715,13 @@
         <v>191</v>
       </c>
       <c r="C9" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>136</v>
@@ -5605,17 +5733,17 @@
         <v>100</v>
       </c>
       <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J9" s="10">
         <f t="shared" si="1"/>
-        <v>2.2548499999999999E-2</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="0"/>
-        <v>44348.8480386722</v>
+        <v>6000000</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11">
-        <v>45097</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5623,13 +5751,13 @@
         <v>191</v>
       </c>
       <c r="C10" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>136</v>
@@ -5641,17 +5769,17 @@
         <v>200</v>
       </c>
       <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>1.0597499999999999E-2</v>
-      </c>
-      <c r="J10" s="74">
-        <f t="shared" si="0"/>
-        <v>94361.87780136826</v>
+        <v>12000000</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11">
-        <v>42390</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5659,13 +5787,13 @@
         <v>191</v>
       </c>
       <c r="C11" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>127</v>
@@ -5677,17 +5805,17 @@
         <v>1</v>
       </c>
       <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>0.49080000000000001</v>
-      </c>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
-        <v>2037.4898125509401</v>
+        <v>60000</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11">
-        <v>9816</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5695,13 +5823,13 @@
         <v>191</v>
       </c>
       <c r="C12" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>127</v>
@@ -5713,17 +5841,17 @@
         <v>50</v>
       </c>
       <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>0.36430899999999999</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="0"/>
-        <v>2744.92257945865</v>
+        <v>3000000</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11">
-        <v>364309</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5731,13 +5859,13 @@
         <v>191</v>
       </c>
       <c r="C13" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>127</v>
@@ -5749,17 +5877,17 @@
         <v>100</v>
       </c>
       <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>0.112913</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="0"/>
-        <v>8856.3761480077592</v>
+        <v>6000000</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11">
-        <v>225826</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5767,13 +5895,13 @@
         <v>191</v>
       </c>
       <c r="C14" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>127</v>
@@ -5785,17 +5913,17 @@
         <v>200</v>
       </c>
       <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="1"/>
-        <v>8.0846249999999995E-2</v>
-      </c>
-      <c r="J14" s="74">
-        <f t="shared" si="0"/>
-        <v>12369.1575057594</v>
+        <v>12000000</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11">
-        <v>323385</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5803,13 +5931,13 @@
         <v>191</v>
       </c>
       <c r="C15" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>136</v>
@@ -5821,17 +5949,17 @@
         <v>1</v>
       </c>
       <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>0.30869999999999997</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="0"/>
-        <v>3239.3909944930401</v>
+        <v>60000</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11">
-        <v>6174</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5839,13 +5967,13 @@
         <v>191</v>
       </c>
       <c r="C16" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>136</v>
@@ -5857,17 +5985,17 @@
         <v>50</v>
       </c>
       <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="1"/>
-        <v>3.6502E-2</v>
-      </c>
-      <c r="J16" s="10">
-        <f t="shared" si="0"/>
-        <v>27395.7591364857</v>
+        <v>3000000</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11">
-        <v>36502</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -5875,13 +6003,13 @@
         <v>191</v>
       </c>
       <c r="C17" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>136</v>
@@ -5893,17 +6021,17 @@
         <v>100</v>
       </c>
       <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="1"/>
-        <v>2.2242999999999999E-2</v>
-      </c>
-      <c r="J17" s="10">
-        <f t="shared" si="0"/>
-        <v>44957.964303376299</v>
+        <v>6000000</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11">
-        <v>44486</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -5911,13 +6039,13 @@
         <v>191</v>
       </c>
       <c r="C18" s="8">
-        <v>1000</v>
+        <v>6000000</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>136</v>
@@ -5929,17 +6057,17 @@
         <v>200</v>
       </c>
       <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>1.057225E-2</v>
-      </c>
-      <c r="J18" s="74">
-        <f t="shared" si="0"/>
-        <v>94587.244910023903</v>
+        <v>12000000</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11">
-        <v>42289</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -5956,14 +6084,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5974,7 +6102,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="42">
+    <row r="2" spans="1:7" ht="40.5">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -5988,10 +6116,10 @@
         <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5999,7 +6127,7 @@
         <v>191</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="8">
         <v>10000000</v>
@@ -6015,7 +6143,7 @@
         <v>191</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="8">
         <v>10000000</v>
@@ -6028,7 +6156,7 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6036,7 +6164,7 @@
         <v>191</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="8">
         <v>10000000</v>
@@ -6049,7 +6177,7 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6067,38 +6195,38 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-    </row>
-    <row r="2" spans="1:13" ht="28">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="27">
       <c r="A2" s="5" t="s">
         <v>115</v>
       </c>
@@ -6106,10 +6234,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -6133,18 +6261,18 @@
         <v>124</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="63">
         <v>10000000</v>
@@ -6186,7 +6314,7 @@
     <row r="4" spans="1:13">
       <c r="A4" s="48"/>
       <c r="B4" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="63">
         <v>10000000</v>
@@ -6228,7 +6356,7 @@
     <row r="5" spans="1:13">
       <c r="A5" s="48"/>
       <c r="B5" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="63">
         <v>10000000</v>
@@ -6270,7 +6398,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="48"/>
       <c r="B6" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="63">
         <v>10000000</v>
@@ -6312,7 +6440,7 @@
     <row r="7" spans="1:13">
       <c r="A7" s="48"/>
       <c r="B7" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
@@ -6324,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G7" s="8">
         <v>20</v>
@@ -6349,7 +6477,7 @@
     <row r="8" spans="1:13">
       <c r="A8" s="48"/>
       <c r="B8" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="63">
         <v>1</v>
@@ -6386,7 +6514,7 @@
     <row r="9" spans="1:13">
       <c r="A9" s="48"/>
       <c r="B9" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="63">
         <v>1</v>
@@ -6423,7 +6551,7 @@
     <row r="10" spans="1:13">
       <c r="A10" s="48"/>
       <c r="B10" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="63">
         <v>1</v>
@@ -6459,10 +6587,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="63">
         <v>6000000</v>
@@ -6500,7 +6628,7 @@
     <row r="12" spans="1:13">
       <c r="A12" s="48"/>
       <c r="B12" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="63">
         <v>6000000</v>
@@ -6538,7 +6666,7 @@
     <row r="13" spans="1:13">
       <c r="A13" s="48"/>
       <c r="B13" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="63">
         <v>6000000</v>
@@ -6576,7 +6704,7 @@
     <row r="14" spans="1:13">
       <c r="A14" s="48"/>
       <c r="B14" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="63">
         <v>6000000</v>
@@ -6614,7 +6742,7 @@
     <row r="15" spans="1:13">
       <c r="A15" s="48"/>
       <c r="B15" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="63">
         <v>6000000</v>
@@ -6627,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="8">
         <v>20</v>
@@ -6656,7 +6784,7 @@
     <row r="16" spans="1:13">
       <c r="A16" s="48"/>
       <c r="B16" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="63">
         <v>6000000</v>
@@ -6698,7 +6826,7 @@
     <row r="17" spans="1:13">
       <c r="A17" s="48"/>
       <c r="B17" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C17" s="63">
         <v>6000000</v>
@@ -6740,7 +6868,7 @@
     <row r="18" spans="1:13">
       <c r="A18" s="48"/>
       <c r="B18" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="63">
         <v>6000000</v>
@@ -6782,7 +6910,7 @@
     <row r="19" spans="1:13">
       <c r="A19" s="48"/>
       <c r="B19" s="63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="63">
         <v>3000000</v>
@@ -6824,7 +6952,7 @@
     <row r="20" spans="1:13">
       <c r="A20" s="48"/>
       <c r="B20" s="63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="63">
         <v>3000000</v>
@@ -6866,7 +6994,7 @@
     <row r="21" spans="1:13">
       <c r="A21" s="48"/>
       <c r="B21" s="63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="63">
         <v>3000000</v>
@@ -6908,7 +7036,7 @@
     <row r="22" spans="1:13">
       <c r="A22" s="48"/>
       <c r="B22" s="63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="63">
         <v>3000000</v>
@@ -6950,7 +7078,7 @@
     <row r="23" spans="1:13">
       <c r="A23" s="48"/>
       <c r="B23" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="63">
         <v>10000000</v>
@@ -6992,7 +7120,7 @@
     <row r="24" spans="1:13">
       <c r="A24" s="48"/>
       <c r="B24" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="63">
         <v>10000000</v>
@@ -7034,7 +7162,7 @@
     <row r="25" spans="1:13">
       <c r="A25" s="48"/>
       <c r="B25" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="63">
         <v>10000000</v>
@@ -7076,7 +7204,7 @@
     <row r="26" spans="1:13">
       <c r="A26" s="48"/>
       <c r="B26" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="63">
         <v>10000000</v>
@@ -7118,7 +7246,7 @@
     <row r="27" spans="1:13">
       <c r="A27" s="48"/>
       <c r="B27" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="63">
         <v>10000000</v>
@@ -7160,7 +7288,7 @@
     <row r="28" spans="1:13">
       <c r="A28" s="48"/>
       <c r="B28" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="63">
         <v>10000000</v>
@@ -7202,7 +7330,7 @@
     <row r="29" spans="1:13">
       <c r="A29" s="48"/>
       <c r="B29" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C29" s="63">
         <v>10000000</v>
@@ -7244,7 +7372,7 @@
     <row r="30" spans="1:13">
       <c r="A30" s="72"/>
       <c r="B30" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="63">
         <v>10000000</v>
@@ -7283,19 +7411,19 @@
         <v>93455</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14" customHeight="1">
-      <c r="A31" s="88" t="s">
+    <row r="31" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A31" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1"/>
@@ -7334,39 +7462,39 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="10.125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-    </row>
-    <row r="2" spans="1:14" ht="28">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+    </row>
+    <row r="2" spans="1:14" ht="27">
       <c r="A2" s="5" t="s">
         <v>115</v>
       </c>
@@ -7374,10 +7502,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -7404,18 +7532,18 @@
         <v>135</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="85" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="63">
         <v>10000000</v>
@@ -7460,7 +7588,7 @@
     <row r="4" spans="1:14">
       <c r="A4" s="48"/>
       <c r="B4" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="63">
         <v>10000000</v>
@@ -7505,7 +7633,7 @@
     <row r="5" spans="1:14">
       <c r="A5" s="48"/>
       <c r="B5" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="63">
         <v>10000000</v>
@@ -7548,9 +7676,9 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="107"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="63">
         <v>6000000</v>
@@ -7595,7 +7723,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="48"/>
       <c r="B7" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="63">
         <v>6000000</v>
@@ -7640,7 +7768,7 @@
     <row r="8" spans="1:14">
       <c r="A8" s="48"/>
       <c r="B8" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="63">
         <v>6000000</v>
@@ -7685,7 +7813,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="48"/>
       <c r="B9" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="63">
         <v>1</v>
@@ -7723,7 +7851,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="48"/>
       <c r="B10" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="63">
         <v>1</v>
@@ -7761,7 +7889,7 @@
     <row r="11" spans="1:14">
       <c r="A11" s="48"/>
       <c r="B11" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="63">
         <v>1</v>
@@ -7799,7 +7927,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="48"/>
       <c r="B12" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="63">
         <v>6000000</v>
@@ -7844,7 +7972,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="48"/>
       <c r="B13" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="63">
         <v>6000000</v>
@@ -7889,7 +8017,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="48"/>
       <c r="B14" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="63">
         <v>6000000</v>
@@ -7925,7 +8053,7 @@
         <v>10000</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N14" s="59">
         <v>50955414</v>
@@ -7934,7 +8062,7 @@
     <row r="15" spans="1:14">
       <c r="A15" s="48"/>
       <c r="B15" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="63">
         <v>3000000</v>
@@ -7979,7 +8107,7 @@
     <row r="16" spans="1:14">
       <c r="A16" s="48"/>
       <c r="B16" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16" s="63">
         <v>3000000</v>
@@ -8017,14 +8145,14 @@
       <c r="M16" s="58">
         <v>1.19</v>
       </c>
-      <c r="N16" s="108">
+      <c r="N16" s="86">
         <v>82098</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="48"/>
       <c r="B17" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="63">
         <v>3000000</v>
@@ -8069,7 +8197,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="48"/>
       <c r="B18" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="63">
         <v>10000000</v>
@@ -8114,7 +8242,7 @@
     <row r="19" spans="1:14">
       <c r="A19" s="48"/>
       <c r="B19" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="63">
         <v>10000000</v>
@@ -8159,7 +8287,7 @@
     <row r="20" spans="1:14">
       <c r="A20" s="48"/>
       <c r="B20" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="63">
         <v>10000000</v>
@@ -8204,7 +8332,7 @@
     <row r="21" spans="1:14">
       <c r="A21" s="48"/>
       <c r="B21" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="63">
         <v>10000000</v>
@@ -8249,7 +8377,7 @@
     <row r="22" spans="1:14">
       <c r="A22" s="48"/>
       <c r="B22" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C22" s="63">
         <v>10000000</v>
@@ -8294,7 +8422,7 @@
     <row r="23" spans="1:14">
       <c r="A23" s="72"/>
       <c r="B23" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C23" s="63">
         <v>10000000</v>
@@ -8336,20 +8464,20 @@
         <v>104678</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14" customHeight="1">
-      <c r="A24" s="88" t="s">
+    <row r="24" spans="1:14" ht="14.1" customHeight="1">
+      <c r="A24" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1"/>
@@ -8364,7 +8492,7 @@
     <row r="29" spans="1:14">
       <c r="C29" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="14" customHeight="1"/>
+    <row r="32" spans="1:14" ht="14.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
@@ -8386,37 +8514,37 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="34.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="35.08984375" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="35.125" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-    </row>
-    <row r="2" spans="1:14" ht="28">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+    </row>
+    <row r="2" spans="1:14" ht="27">
       <c r="A2" s="5" t="s">
         <v>115</v>
       </c>
@@ -8424,10 +8552,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -8454,18 +8582,18 @@
         <v>135</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="63">
         <v>6000000</v>
@@ -8510,7 +8638,7 @@
     <row r="4" spans="1:14">
       <c r="A4" s="93"/>
       <c r="B4" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="63">
         <v>6000000</v>
@@ -8555,7 +8683,7 @@
     <row r="5" spans="1:14">
       <c r="A5" s="93"/>
       <c r="B5" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="63">
         <v>6000000</v>
@@ -8600,7 +8728,7 @@
     <row r="6" spans="1:14">
       <c r="A6" s="93"/>
       <c r="B6" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="63">
         <v>6000000</v>
@@ -8645,7 +8773,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="93"/>
       <c r="B7" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="63">
         <v>6000000</v>
@@ -8690,7 +8818,7 @@
     <row r="8" spans="1:14">
       <c r="A8" s="93"/>
       <c r="B8" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="63">
         <v>6000000</v>
@@ -8735,7 +8863,7 @@
     <row r="9" spans="1:14">
       <c r="A9" s="93"/>
       <c r="B9" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="63">
         <v>3000000</v>
@@ -8780,7 +8908,7 @@
     <row r="10" spans="1:14">
       <c r="A10" s="93"/>
       <c r="B10" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="63">
         <v>3000000</v>
@@ -8825,7 +8953,7 @@
     <row r="11" spans="1:14">
       <c r="A11" s="93"/>
       <c r="B11" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="63">
         <v>3000000</v>
@@ -8870,7 +8998,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="93"/>
       <c r="B12" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="63">
         <v>3000000</v>
@@ -8915,7 +9043,7 @@
     <row r="13" spans="1:14">
       <c r="A13" s="93"/>
       <c r="B13" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="63">
         <v>10000000</v>
@@ -8960,7 +9088,7 @@
     <row r="14" spans="1:14">
       <c r="A14" s="93"/>
       <c r="B14" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="63">
         <v>10000000</v>
@@ -9005,7 +9133,7 @@
     <row r="15" spans="1:14">
       <c r="A15" s="93"/>
       <c r="B15" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="63">
         <v>10000000</v>
@@ -9040,7 +9168,7 @@
       <c r="L15" s="11">
         <v>138574</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="75">
         <v>12.26</v>
       </c>
       <c r="N15" s="23">
@@ -9050,7 +9178,7 @@
     <row r="16" spans="1:14">
       <c r="A16" s="93"/>
       <c r="B16" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="63">
         <v>10000000</v>
@@ -9095,7 +9223,7 @@
     <row r="17" spans="1:14">
       <c r="A17" s="93"/>
       <c r="B17" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="63">
         <v>10000000</v>
@@ -9140,7 +9268,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="93"/>
       <c r="B18" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" s="63">
         <v>10000000</v>
@@ -9185,7 +9313,7 @@
     <row r="19" spans="1:14">
       <c r="A19" s="93"/>
       <c r="B19" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" s="63">
         <v>10000000</v>
@@ -9230,7 +9358,7 @@
     <row r="20" spans="1:14">
       <c r="A20" s="93"/>
       <c r="B20" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="63">
         <v>10000000</v>
@@ -9274,10 +9402,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="63">
         <v>6000000</v>
@@ -9316,7 +9444,7 @@
     <row r="22" spans="1:14">
       <c r="A22" s="93"/>
       <c r="B22" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="63">
         <v>6000000</v>
@@ -9355,7 +9483,7 @@
     <row r="23" spans="1:14">
       <c r="A23" s="93"/>
       <c r="B23" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="63">
         <v>6000000</v>
@@ -9394,7 +9522,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="93"/>
       <c r="B24" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C24" s="63">
         <v>6000000</v>
@@ -9433,7 +9561,7 @@
     <row r="25" spans="1:14">
       <c r="A25" s="93"/>
       <c r="B25" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="63">
         <v>6000000</v>
@@ -9472,7 +9600,7 @@
     <row r="26" spans="1:14">
       <c r="A26" s="93"/>
       <c r="B26" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="63">
         <v>6000000</v>
@@ -9511,7 +9639,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="93"/>
       <c r="B27" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="63">
         <v>3000000</v>
@@ -9550,7 +9678,7 @@
     <row r="28" spans="1:14">
       <c r="A28" s="93"/>
       <c r="B28" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="63">
         <v>3000000</v>
@@ -9589,7 +9717,7 @@
     <row r="29" spans="1:14">
       <c r="A29" s="93"/>
       <c r="B29" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="63">
         <v>3000000</v>
@@ -9628,7 +9756,7 @@
     <row r="30" spans="1:14">
       <c r="A30" s="93"/>
       <c r="B30" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="63">
         <v>3000000</v>
@@ -9667,7 +9795,7 @@
     <row r="31" spans="1:14">
       <c r="A31" s="93"/>
       <c r="B31" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="63">
         <v>10000000</v>
@@ -9706,7 +9834,7 @@
     <row r="32" spans="1:14">
       <c r="A32" s="93"/>
       <c r="B32" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" s="63">
         <v>10000000</v>
@@ -9745,7 +9873,7 @@
     <row r="33" spans="1:12">
       <c r="A33" s="93"/>
       <c r="B33" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="63">
         <v>10000000</v>
@@ -9784,7 +9912,7 @@
     <row r="34" spans="1:12">
       <c r="A34" s="93"/>
       <c r="B34" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="63">
         <v>10000000</v>
@@ -9823,7 +9951,7 @@
     <row r="35" spans="1:12">
       <c r="A35" s="93"/>
       <c r="B35" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="63">
         <v>10000000</v>
@@ -9862,7 +9990,7 @@
     <row r="36" spans="1:12">
       <c r="A36" s="93"/>
       <c r="B36" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" s="63">
         <v>10000000</v>
@@ -9901,7 +10029,7 @@
     <row r="37" spans="1:12">
       <c r="A37" s="93"/>
       <c r="B37" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="63">
         <v>10000000</v>
@@ -9940,7 +10068,7 @@
     <row r="38" spans="1:12">
       <c r="A38" s="94"/>
       <c r="B38" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C38" s="63">
         <v>10000000</v>
@@ -9976,8 +10104,8 @@
         <v>500377</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14" customHeight="1">
-      <c r="A39" s="88" t="s">
+    <row r="39" spans="1:12" ht="14.1" customHeight="1">
+      <c r="A39" s="90" t="s">
         <v>151</v>
       </c>
       <c r="B39" s="91"/>
@@ -9991,7 +10119,7 @@
       <c r="J39" s="91"/>
       <c r="K39" s="91"/>
     </row>
-    <row r="63" ht="14" customHeight="1"/>
+    <row r="63" ht="14.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
@@ -10012,39 +10140,39 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" customWidth="1"/>
-    <col min="9" max="9" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" customWidth="1"/>
-    <col min="12" max="12" width="6.08984375" customWidth="1"/>
-    <col min="13" max="13" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="5.75" customWidth="1"/>
+    <col min="12" max="12" width="6.125" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-    </row>
-    <row r="2" spans="1:13" ht="56">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="54">
       <c r="A2" s="5" t="s">
         <v>115</v>
       </c>
@@ -10052,10 +10180,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>152</v>
@@ -10087,7 +10215,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>126</v>
@@ -10402,41 +10530,41 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.36328125" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" customWidth="1"/>
-    <col min="10" max="11" width="11.36328125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="6.08984375" customWidth="1"/>
-    <col min="13" max="13" width="5.6328125" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="11" width="11.375" style="46" customWidth="1"/>
+    <col min="12" max="12" width="6.125" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="98" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-    </row>
-    <row r="2" spans="1:14" ht="42">
+        <v>257</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:14" ht="54">
       <c r="A2" s="5" t="s">
         <v>115</v>
       </c>
@@ -10444,10 +10572,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -10482,7 +10610,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>126</v>
@@ -10892,7 +11020,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="75" customFormat="1">
+    <row r="13" spans="1:14" s="74" customFormat="1">
       <c r="A13" s="100"/>
       <c r="B13" s="50" t="s">
         <v>126</v>
@@ -11056,7 +11184,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="75" customFormat="1">
+    <row r="17" spans="1:14" s="74" customFormat="1">
       <c r="A17" s="100"/>
       <c r="B17" s="50" t="s">
         <v>126</v>
@@ -11157,33 +11285,33 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="3" width="24.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-    </row>
-    <row r="2" spans="1:13" ht="28">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" ht="27">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
@@ -11191,10 +11319,10 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>118</v>
@@ -11218,14 +11346,14 @@
         <v>162</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="101" t="s">
         <v>163</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -11269,7 +11397,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="90"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="11" t="s">
         <v>164</v>
       </c>
@@ -11311,7 +11439,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="90"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="11" t="s">
         <v>164</v>
       </c>
@@ -11345,15 +11473,15 @@
       <c r="K5" s="11">
         <v>10000</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="87">
         <v>12.58</v>
       </c>
-      <c r="M5" s="110">
+      <c r="M5" s="88">
         <v>9106</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="90"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="11" t="s">
         <v>164</v>
       </c>
@@ -11395,7 +11523,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="90"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="11" t="s">
         <v>164</v>
       </c>
@@ -11437,7 +11565,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="101"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="11" t="s">
         <v>164</v>
       </c>
@@ -11479,7 +11607,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="101" t="s">
         <v>163</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -11523,7 +11651,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="90"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="11" t="s">
         <v>164</v>
       </c>
@@ -11559,7 +11687,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="90"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="11" t="s">
         <v>164</v>
       </c>
@@ -11593,15 +11721,15 @@
       <c r="K11" s="11">
         <v>10000</v>
       </c>
-      <c r="L11" s="109">
+      <c r="L11" s="87">
         <v>4.88</v>
       </c>
-      <c r="M11" s="110">
+      <c r="M11" s="88">
         <v>38330</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="90"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="11" t="s">
         <v>164</v>
       </c>
@@ -11643,7 +11771,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="90"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="11" t="s">
         <v>164</v>
       </c>
@@ -11679,7 +11807,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="101"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="11" t="s">
         <v>164</v>
       </c>
@@ -11721,7 +11849,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="101" t="s">
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -11765,7 +11893,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="90"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="11" t="s">
         <v>164</v>
       </c>
@@ -11807,7 +11935,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="90"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="11" t="s">
         <v>164</v>
       </c>
@@ -11849,7 +11977,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="101"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="11" t="s">
         <v>164</v>
       </c>
@@ -11891,7 +12019,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="101" t="s">
         <v>165</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -11935,7 +12063,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="90"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="11" t="s">
         <v>164</v>
       </c>
@@ -11977,7 +12105,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="90"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="11" t="s">
         <v>164</v>
       </c>
@@ -12019,7 +12147,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="90"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="11" t="s">
         <v>164</v>
       </c>
@@ -12085,38 +12213,38 @@
       <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="5" width="11.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" customWidth="1"/>
-    <col min="15" max="15" width="26.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="5" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-    </row>
-    <row r="2" spans="1:18" ht="42">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+    </row>
+    <row r="2" spans="1:18" ht="40.5">
       <c r="A2" s="34" t="s">
         <v>197</v>
       </c>
@@ -12124,7 +12252,7 @@
         <v>198</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>199</v>
@@ -12254,7 +12382,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="86" customFormat="1">
+    <row r="5" spans="1:18" s="84" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>209</v>
       </c>
@@ -12305,7 +12433,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" s="86" customFormat="1">
+    <row r="6" spans="1:18" s="84" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>209</v>
       </c>
@@ -12450,7 +12578,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="86" customFormat="1">
+    <row r="9" spans="1:18" s="84" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>212</v>
       </c>
@@ -12501,7 +12629,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" s="86" customFormat="1">
+    <row r="10" spans="1:18" s="84" customFormat="1">
       <c r="A10" s="9" t="s">
         <v>212</v>
       </c>
@@ -12630,11 +12758,11 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="1:18" s="86" customFormat="1">
-      <c r="A13" s="80" t="s">
+    <row r="13" spans="1:18" s="84" customFormat="1">
+      <c r="A13" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C13" s="8">
@@ -12644,25 +12772,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="80">
         <v>100</v>
       </c>
-      <c r="F13" s="80">
-        <v>20</v>
-      </c>
-      <c r="G13" s="82">
+      <c r="F13" s="78">
+        <v>20</v>
+      </c>
+      <c r="G13" s="80">
         <v>11</v>
       </c>
-      <c r="H13" s="83">
-        <v>1</v>
-      </c>
-      <c r="I13" s="83">
-        <v>1</v>
-      </c>
-      <c r="J13" s="83" t="s">
+      <c r="H13" s="81">
+        <v>1</v>
+      </c>
+      <c r="I13" s="81">
+        <v>1</v>
+      </c>
+      <c r="J13" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="82">
         <v>10281</v>
       </c>
       <c r="L13" s="41">
@@ -12681,11 +12809,11 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" s="86" customFormat="1">
-      <c r="A14" s="80" t="s">
+    <row r="14" spans="1:18" s="84" customFormat="1">
+      <c r="A14" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C14" s="8">
@@ -12695,25 +12823,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="80">
         <v>100</v>
       </c>
-      <c r="F14" s="80">
-        <v>20</v>
-      </c>
-      <c r="G14" s="82">
+      <c r="F14" s="78">
+        <v>20</v>
+      </c>
+      <c r="G14" s="80">
         <v>12</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="78">
         <v>-1</v>
       </c>
-      <c r="I14" s="83">
-        <v>1</v>
-      </c>
-      <c r="J14" s="83" t="s">
+      <c r="I14" s="81">
+        <v>1</v>
+      </c>
+      <c r="J14" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K14" s="82">
         <v>40205</v>
       </c>
       <c r="L14" s="41">
@@ -12733,10 +12861,10 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C15" s="8">
@@ -12746,25 +12874,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <v>100</v>
       </c>
-      <c r="F15" s="80">
-        <v>20</v>
-      </c>
-      <c r="G15" s="82">
+      <c r="F15" s="78">
+        <v>20</v>
+      </c>
+      <c r="G15" s="80">
         <v>11</v>
       </c>
-      <c r="H15" s="83">
-        <v>1</v>
-      </c>
-      <c r="I15" s="83">
-        <v>1</v>
-      </c>
-      <c r="J15" s="83" t="s">
+      <c r="H15" s="81">
+        <v>1</v>
+      </c>
+      <c r="I15" s="81">
+        <v>1</v>
+      </c>
+      <c r="J15" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="82">
         <v>10489</v>
       </c>
       <c r="L15" s="41">
@@ -12780,10 +12908,10 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C16" s="8">
@@ -12793,25 +12921,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="80">
         <v>100</v>
       </c>
-      <c r="F16" s="80">
-        <v>20</v>
-      </c>
-      <c r="G16" s="82">
+      <c r="F16" s="78">
+        <v>20</v>
+      </c>
+      <c r="G16" s="80">
         <v>12</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="78">
         <v>-1</v>
       </c>
-      <c r="I16" s="83">
-        <v>1</v>
-      </c>
-      <c r="J16" s="83" t="s">
+      <c r="I16" s="81">
+        <v>1</v>
+      </c>
+      <c r="J16" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="82">
         <v>39681</v>
       </c>
       <c r="L16" s="41">
@@ -12826,11 +12954,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="86" customFormat="1">
-      <c r="A17" s="80" t="s">
+    <row r="17" spans="1:18" s="84" customFormat="1">
+      <c r="A17" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="8">
@@ -12840,25 +12968,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="80">
         <v>100</v>
       </c>
-      <c r="F17" s="80">
-        <v>20</v>
-      </c>
-      <c r="G17" s="82">
+      <c r="F17" s="78">
+        <v>20</v>
+      </c>
+      <c r="G17" s="80">
         <v>11</v>
       </c>
-      <c r="H17" s="83">
-        <v>1</v>
-      </c>
-      <c r="I17" s="83">
-        <v>1</v>
-      </c>
-      <c r="J17" s="83" t="s">
+      <c r="H17" s="81">
+        <v>1</v>
+      </c>
+      <c r="I17" s="81">
+        <v>1</v>
+      </c>
+      <c r="J17" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="K17" s="85">
+      <c r="K17" s="83">
         <v>9981</v>
       </c>
       <c r="L17" s="41">
@@ -12877,11 +13005,11 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" s="86" customFormat="1">
-      <c r="A18" s="80" t="s">
+    <row r="18" spans="1:18" s="84" customFormat="1">
+      <c r="A18" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C18" s="8">
@@ -12891,25 +13019,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="80">
         <v>100</v>
       </c>
-      <c r="F18" s="80">
-        <v>20</v>
-      </c>
-      <c r="G18" s="82">
+      <c r="F18" s="78">
+        <v>20</v>
+      </c>
+      <c r="G18" s="80">
         <v>12</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="78">
         <v>-1</v>
       </c>
-      <c r="I18" s="83">
-        <v>1</v>
-      </c>
-      <c r="J18" s="83" t="s">
+      <c r="I18" s="81">
+        <v>1</v>
+      </c>
+      <c r="J18" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="K18" s="85">
+      <c r="K18" s="83">
         <v>42981</v>
       </c>
       <c r="L18" s="41">
@@ -12929,10 +13057,10 @@
       <c r="R18"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C19" s="8">
@@ -12942,25 +13070,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="80">
         <v>100</v>
       </c>
-      <c r="F19" s="80">
-        <v>20</v>
-      </c>
-      <c r="G19" s="82">
+      <c r="F19" s="78">
+        <v>20</v>
+      </c>
+      <c r="G19" s="80">
         <v>11</v>
       </c>
-      <c r="H19" s="83">
-        <v>1</v>
-      </c>
-      <c r="I19" s="83">
-        <v>1</v>
-      </c>
-      <c r="J19" s="83" t="s">
+      <c r="H19" s="81">
+        <v>1</v>
+      </c>
+      <c r="I19" s="81">
+        <v>1</v>
+      </c>
+      <c r="J19" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="83">
         <v>10248</v>
       </c>
       <c r="L19" s="41">
@@ -12976,10 +13104,10 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C20" s="8">
@@ -12989,25 +13117,25 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="80">
         <v>100</v>
       </c>
-      <c r="F20" s="80">
-        <v>20</v>
-      </c>
-      <c r="G20" s="82">
+      <c r="F20" s="78">
+        <v>20</v>
+      </c>
+      <c r="G20" s="80">
         <v>12</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H20" s="78">
         <v>-1</v>
       </c>
-      <c r="I20" s="83">
-        <v>1</v>
-      </c>
-      <c r="J20" s="83" t="s">
+      <c r="I20" s="81">
+        <v>1</v>
+      </c>
+      <c r="J20" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="K20" s="85">
+      <c r="K20" s="83">
         <v>41258</v>
       </c>
       <c r="L20" s="41">
@@ -13022,11 +13150,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="86" customFormat="1">
-      <c r="A21" s="80" t="s">
+    <row r="21" spans="1:18" s="84" customFormat="1">
+      <c r="A21" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C21" s="8">
@@ -13036,40 +13164,40 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="80">
         <v>100</v>
       </c>
-      <c r="F21" s="80">
-        <v>20</v>
-      </c>
-      <c r="G21" s="82">
+      <c r="F21" s="78">
+        <v>20</v>
+      </c>
+      <c r="G21" s="80">
         <v>11</v>
       </c>
-      <c r="H21" s="83">
-        <v>1</v>
-      </c>
-      <c r="I21" s="83">
-        <v>1</v>
-      </c>
-      <c r="J21" s="83" t="s">
+      <c r="H21" s="81">
+        <v>1</v>
+      </c>
+      <c r="I21" s="81">
+        <v>1</v>
+      </c>
+      <c r="J21" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="K21" s="85">
+      <c r="K21" s="83">
         <v>9799</v>
       </c>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" s="86" customFormat="1">
-      <c r="A22" s="80" t="s">
+    <row r="22" spans="1:18" s="84" customFormat="1">
+      <c r="A22" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="79" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="8">
@@ -13079,30 +13207,30 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="80">
         <v>100</v>
       </c>
-      <c r="F22" s="80">
-        <v>20</v>
-      </c>
-      <c r="G22" s="82">
+      <c r="F22" s="78">
+        <v>20</v>
+      </c>
+      <c r="G22" s="80">
         <v>12</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="78">
         <v>-1</v>
       </c>
-      <c r="I22" s="83">
-        <v>1</v>
-      </c>
-      <c r="J22" s="83" t="s">
+      <c r="I22" s="81">
+        <v>1</v>
+      </c>
+      <c r="J22" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="K22" s="85">
+      <c r="K22" s="83">
         <v>69562</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -13125,30 +13253,28 @@
   </sheetPr>
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-    </row>
-    <row r="2" spans="1:18" ht="42">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+    </row>
+    <row r="2" spans="1:18" ht="40.5">
       <c r="A2" s="5" t="s">
         <v>166</v>
       </c>
@@ -13184,7 +13310,7 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="103">
+      <c r="A3" s="105">
         <v>6</v>
       </c>
       <c r="B3" s="11" t="s">
